--- a/xm-biz/doc/字典导入模板.xlsx
+++ b/xm-biz/doc/字典导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+  <si>
+    <t>上级code</t>
+  </si>
+  <si>
+    <t>上级字典</t>
+  </si>
+  <si>
+    <t>字典code</t>
+  </si>
   <si>
     <t>字典名</t>
   </si>
@@ -22,10 +31,7 @@
     <t>字典值</t>
   </si>
   <si>
-    <t>字典编码</t>
-  </si>
-  <si>
-    <t>上级字典</t>
+    <t>cms_logo</t>
   </si>
   <si>
     <t>后台左上角Logo</t>
@@ -34,7 +40,7 @@
     <t>F14ED215-ED95-4998-A1D1-0B4F9549B80E</t>
   </si>
   <si>
-    <t>cms_logo</t>
+    <t>cms_title</t>
   </si>
   <si>
     <t>后台标题</t>
@@ -43,7 +49,7 @@
     <t>基础服务</t>
   </si>
   <si>
-    <t>cms_title</t>
+    <t>login_back_ground_image</t>
   </si>
   <si>
     <t>登陆背景图</t>
@@ -52,100 +58,97 @@
     <t>F50350F9-5D84-491F-BDBE-F26F55BA2027</t>
   </si>
   <si>
-    <t>login_back_ground_image</t>
+    <t>dic_meal_options</t>
   </si>
   <si>
     <t>餐类</t>
   </si>
   <si>
-    <t>dic_meal_options</t>
+    <t>dic_meal_options_child_1</t>
   </si>
   <si>
     <t>中餐</t>
   </si>
   <si>
-    <t>dic_meal_options_child_1</t>
+    <t>dic_meal_options_child_2</t>
   </si>
   <si>
     <t>早餐</t>
   </si>
   <si>
-    <t>dic_meal_options_child_2</t>
-  </si>
-  <si>
     <t>晚餐</t>
   </si>
   <si>
+    <t>disabled_options</t>
+  </si>
+  <si>
     <t>状态</t>
   </si>
   <si>
-    <t>disabled_options</t>
-  </si>
-  <si>
     <t>正常</t>
   </si>
   <si>
     <t>已删除</t>
   </si>
   <si>
+    <t>STAFF_INFO</t>
+  </si>
+  <si>
     <t>员工信息</t>
   </si>
   <si>
-    <t>STAFF_INFO</t>
+    <t>POLITICS_STATUS</t>
   </si>
   <si>
     <t>政治面貌</t>
   </si>
   <si>
-    <t>POLITICS_STATUS</t>
+    <t>PROFESSION_TITLE</t>
   </si>
   <si>
     <t>职称</t>
   </si>
   <si>
-    <t>PROFESSION_TITLE</t>
+    <t>PARTY_MEMBER</t>
   </si>
   <si>
     <t>党员</t>
   </si>
   <si>
-    <t>PARTY_MEMBER</t>
+    <t>LEAGUE_MEMBER</t>
   </si>
   <si>
     <t>团员</t>
   </si>
   <si>
-    <t>LEAGUE_MEMBER</t>
+    <t>OTHER</t>
   </si>
   <si>
     <t>其他</t>
   </si>
   <si>
-    <t>OTHER</t>
+    <t>POSITIVE</t>
   </si>
   <si>
     <t>正高级</t>
   </si>
   <si>
-    <t>POSITIVE</t>
+    <t>DEPUTY_SENIOR</t>
   </si>
   <si>
     <t>副高级</t>
   </si>
   <si>
-    <t>DEPUTY_SENIOR</t>
+    <t>INTERMEDIATE</t>
   </si>
   <si>
     <t>中级</t>
   </si>
   <si>
-    <t>INTERMEDIATE</t>
+    <t>PRIMARY</t>
   </si>
   <si>
     <t>初级</t>
-  </si>
-  <si>
-    <t>PRIMARY</t>
   </si>
 </sst>
 </file>
@@ -802,10 +805,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1127,288 +1130,333 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="53.75" customWidth="1"/>
+    <col min="1" max="2" width="21.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="53.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:4">
+    <row r="1" ht="18.75" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="3:5">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="5" spans="3:5">
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
+    </row>
+    <row r="9" spans="3:5">
       <c r="C9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10">
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
       <c r="C12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>27</v>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="B16">
-        <v>2</v>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="B17">
-        <v>4</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="B19">
-        <v>1</v>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="D19" t="s">
         <v>40</v>
       </c>
-      <c r="B20">
-        <v>2</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="D20" t="s">
         <v>42</v>
       </c>
-      <c r="B21">
-        <v>3</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>28</v>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
